--- a/UpperBasinConsumptiveUses/UB CRSS Demands Data.xlsx
+++ b/UpperBasinConsumptiveUses/UB CRSS Demands Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTAH STATE UNIVERSITY\0000-work\data\upper basin demand data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Future_of_the_Colorado_River_Project\UpperBasinConsumptiveUses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1593CA5B-0DFF-498D-9BF1-8A1E064D444C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8883337F-974A-4AB5-BF24-1CE88EEDA731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,13 +136,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This file is developed to calculate the upper basin scenarios used in Colorado River Simulation System (CRSS)</t>
-  </si>
-  <si>
     <t>Application</t>
-  </si>
-  <si>
-    <t>Results from this file are used in the "Upper Colorado River Basin Depletions and Evaporations.xlsx" for UB consumptive uses comparison</t>
   </si>
   <si>
     <t>Data Sources</t>
@@ -155,31 +149,6 @@
   </si>
   <si>
     <t>UB CRSS Demands Data</t>
-  </si>
-  <si>
-    <r>
-      <t>CRSS\CRSS.Jun2019\dmi\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Demand_Input_Tool_Current_Trends_And_Other_Scenarios_092412wFig_v4.xlsm. "UB CRSS Demands Data"</t>
-    </r>
   </si>
   <si>
     <t>Original Data</t>
@@ -210,6 +179,37 @@
   </si>
   <si>
     <t xml:space="preserve">Upper basin depletion scenarios calculated by default States data </t>
+  </si>
+  <si>
+    <r>
+      <t>CRSS\CRSS.Jun2019\dmi\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Demand_Input_Tool_Current_Trends_And_Other_Scenarios_092412wFig_v4.xlsm. "UB CRSS Demands Data" worksheet</t>
+    </r>
+  </si>
+  <si>
+    <t>Results from this file are used in the "Upper Colorado River Basin Depletions and Evaporations.xlsx" for UB water depletions comparison</t>
+  </si>
+  <si>
+    <t>This file is developed to calculate the upper basin water depletion scenarios used in Colorado River Simulation System (CRSS)</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,23 +622,23 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,18 +646,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,10 +716,10 @@
   <sheetData>
     <row r="1" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
@@ -814,22 +814,22 @@
         <v>29</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
